--- a/3-extraregels/IMKL-ExtraRegels-3.0rc-intern.xlsx
+++ b/3-extraregels/IMKL-ExtraRegels-3.0rc-intern.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.janssen.GNM\Documents\Github\imkl-werkomgeving\3-extraregels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D36CBE-38F3-4336-A0E7-8F6C7C9C73B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52FF12D-7CD6-44C7-B655-283B369E5AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-36" windowWidth="23256" windowHeight="12456" tabRatio="875" firstSheet="23" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24870" yWindow="-5550" windowWidth="22350" windowHeight="10590" tabRatio="875" firstSheet="24" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NL-WIBON" sheetId="27" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4511" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4457" uniqueCount="455">
   <si>
     <t>Annotatie</t>
   </si>
@@ -1063,9 +1063,6 @@
     <t>aanvrager.organisatie.bezoekAdres</t>
   </si>
   <si>
-    <t>aanvrager.organisatie.postbusAdres</t>
-  </si>
-  <si>
     <t>aanvrager.organisatie.website</t>
   </si>
   <si>
@@ -1097,30 +1094,6 @@
   </si>
   <si>
     <t>(PostbusAdres)</t>
-  </si>
-  <si>
-    <t>aanvrager.organisatie.postbusAdres.postbusnummer</t>
-  </si>
-  <si>
-    <t>aanvrager.organisatie.postbusAdres.postcode</t>
-  </si>
-  <si>
-    <t>aanvrager.organisatie.postbusAdres.woonplaatsNaam</t>
-  </si>
-  <si>
-    <t>aanvrager.organisatie.postbusAdres.landcode</t>
-  </si>
-  <si>
-    <t>opdrachtgever.organisatie.postbusAdres.postbusnummer</t>
-  </si>
-  <si>
-    <t>opdrachtgever.organisatie.postbusAdres.postcode</t>
-  </si>
-  <si>
-    <t>opdrachtgever.organisatie.postbusAdres.woonplaatsNaam</t>
-  </si>
-  <si>
-    <t>opdrachtgever.organisatie.postbusAdres.landcode</t>
   </si>
   <si>
     <t>(AanvraagSoortContact)</t>
@@ -1233,9 +1206,6 @@
   </si>
   <si>
     <t>opdrachtgever.organisatie.bezoekAdres</t>
-  </si>
-  <si>
-    <t>opdrachtgever.organisatie.postbusAdres</t>
   </si>
   <si>
     <t>opdrachtgever.organisatie.telefoon</t>
@@ -2182,7 +2152,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2302,10 +2272,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3930,7 +3896,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>82</v>
@@ -3950,13 +3916,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="D28" s="35" t="s">
         <v>54</v>
@@ -3970,13 +3936,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="D29" s="35" t="s">
         <v>54</v>
@@ -3990,13 +3956,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="D30" s="35" t="s">
         <v>54</v>
@@ -4010,13 +3976,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="D31" s="35" t="s">
         <v>54</v>
@@ -4030,13 +3996,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="D32" s="35" t="s">
         <v>54</v>
@@ -4050,13 +4016,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="D33" s="35" t="s">
         <v>54</v>
@@ -4130,7 +4096,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B37" t="s">
         <v>82</v>
@@ -4780,7 +4746,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B32" s="34" t="s">
         <v>82</v>
@@ -4800,7 +4766,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="B33" s="34" t="s">
         <v>82</v>
@@ -7897,7 +7863,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B10" t="s">
         <v>293</v>
@@ -7917,7 +7883,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B11" t="s">
         <v>293</v>
@@ -7937,7 +7903,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B12" t="s">
         <v>293</v>
@@ -7957,7 +7923,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B13" t="s">
         <v>293</v>
@@ -7977,7 +7943,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B14" t="s">
         <v>293</v>
@@ -7997,7 +7963,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B15" t="s">
         <v>293</v>
@@ -8017,7 +7983,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B16" t="s">
         <v>293</v>
@@ -8037,7 +8003,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B17" t="s">
         <v>293</v>
@@ -8137,7 +8103,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>82</v>
@@ -8172,7 +8138,7 @@
         <v>29</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -8407,10 +8373,10 @@
     </row>
     <row r="11" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C11" t="s">
         <v>276</v>
@@ -8422,15 +8388,15 @@
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C12" t="s">
         <v>276</v>
@@ -8442,15 +8408,15 @@
         <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C13" t="s">
         <v>276</v>
@@ -8462,7 +8428,7 @@
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8578,7 +8544,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -8988,7 +8954,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>126</v>
@@ -9008,7 +8974,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>126</v>
@@ -9272,7 +9238,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9292,7 +9258,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -9607,7 +9573,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9765,7 +9731,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -9865,7 +9831,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10329,7 +10295,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -10389,7 +10355,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="32" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -10661,7 +10627,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -10721,7 +10687,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -10809,7 +10775,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -10919,7 +10885,7 @@
     </row>
     <row r="7" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>82</v>
@@ -10934,12 +10900,12 @@
         <v>29</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>82</v>
@@ -10954,12 +10920,12 @@
         <v>29</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B9" s="32" t="s">
         <v>82</v>
@@ -10974,12 +10940,12 @@
         <v>29</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>82</v>
@@ -10994,12 +10960,12 @@
         <v>29</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>82</v>
@@ -11014,7 +10980,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -12418,7 +12384,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>126</v>
@@ -12438,7 +12404,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>126</v>
@@ -12559,7 +12525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -12738,15 +12704,15 @@
         <v>29</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B10" t="s">
         <v>321</v>
-      </c>
-      <c r="B10" t="s">
-        <v>322</v>
       </c>
       <c r="C10" t="s">
         <v>276</v>
@@ -12763,10 +12729,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C11" t="s">
         <v>276</v>
@@ -12798,7 +12764,7 @@
         <v>35</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -12831,10 +12797,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -13037,10 +13003,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C11" t="s">
         <v>276</v>
@@ -13057,10 +13023,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C12" t="s">
         <v>276</v>
@@ -13077,10 +13043,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>318</v>
+      </c>
+      <c r="B13" t="s">
         <v>319</v>
-      </c>
-      <c r="B13" t="s">
-        <v>320</v>
       </c>
       <c r="C13" t="s">
         <v>276</v>
@@ -13120,13 +13086,13 @@
         <v>310</v>
       </c>
       <c r="B15" t="s">
+        <v>314</v>
+      </c>
+      <c r="C15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D15" s="31" t="s">
         <v>315</v>
-      </c>
-      <c r="C15" t="s">
-        <v>276</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>316</v>
       </c>
       <c r="E15" t="s">
         <v>29</v>
@@ -13140,7 +13106,7 @@
         <v>311</v>
       </c>
       <c r="B16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C16" t="s">
         <v>276</v>
@@ -13160,7 +13126,7 @@
         <v>312</v>
       </c>
       <c r="B17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C17" t="s">
         <v>276</v>
@@ -13177,7 +13143,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B18" t="s">
         <v>293</v>
@@ -13192,12 +13158,12 @@
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B19" t="s">
         <v>293</v>
@@ -13217,7 +13183,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B20" t="s">
         <v>293</v>
@@ -13237,7 +13203,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="B21" t="s">
         <v>293</v>
@@ -13257,7 +13223,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B22" t="s">
         <v>293</v>
@@ -13277,7 +13243,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B23" t="s">
         <v>293</v>
@@ -13297,7 +13263,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B24" t="s">
         <v>293</v>
@@ -13317,7 +13283,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="B25" t="s">
         <v>293</v>
@@ -13337,10 +13303,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="B26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C26" t="s">
         <v>276</v>
@@ -13357,16 +13323,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="B27" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C27" t="s">
         <v>276</v>
       </c>
-      <c r="D27" s="31">
-        <v>1</v>
+      <c r="D27" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="E27" t="s">
         <v>29</v>
@@ -13377,16 +13343,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="B28" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C28" t="s">
         <v>276</v>
       </c>
-      <c r="D28" s="31">
-        <v>1</v>
+      <c r="D28" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="E28" t="s">
         <v>29</v>
@@ -13397,16 +13363,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="B29" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C29" t="s">
         <v>276</v>
       </c>
-      <c r="D29" s="31">
-        <v>1</v>
+      <c r="D29" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="E29" t="s">
         <v>29</v>
@@ -13417,10 +13383,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="B30" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C30" t="s">
         <v>276</v>
@@ -13437,10 +13403,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B31" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C31" t="s">
         <v>276</v>
@@ -13457,10 +13423,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B32" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C32" t="s">
         <v>276</v>
@@ -13477,10 +13443,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B33" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C33" t="s">
         <v>276</v>
@@ -13497,30 +13463,30 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>360</v>
+        <v>241</v>
       </c>
       <c r="B34" t="s">
-        <v>315</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
         <v>276</v>
       </c>
-      <c r="D34" s="31" t="s">
-        <v>31</v>
+      <c r="D34" s="31">
+        <v>1</v>
       </c>
       <c r="E34" t="s">
         <v>29</v>
       </c>
-      <c r="F34" t="s">
-        <v>153</v>
+      <c r="F34" s="20" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>314</v>
+        <v>242</v>
       </c>
       <c r="B35" t="s">
-        <v>315</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
         <v>276</v>
@@ -13537,10 +13503,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>361</v>
+        <v>291</v>
       </c>
       <c r="B36" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="C36" t="s">
         <v>276</v>
@@ -13557,10 +13523,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B37" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C37" t="s">
         <v>276</v>
@@ -13577,10 +13543,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B38" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C38" t="s">
         <v>276</v>
@@ -13597,30 +13563,30 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>241</v>
+        <v>357</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>319</v>
       </c>
       <c r="C39" t="s">
         <v>276</v>
       </c>
-      <c r="D39" s="31">
-        <v>1</v>
+      <c r="D39" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="E39" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="20" t="s">
-        <v>463</v>
+      <c r="F39" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>242</v>
+        <v>292</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>290</v>
       </c>
       <c r="C40" t="s">
         <v>276</v>
@@ -13637,16 +13603,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>291</v>
+        <v>358</v>
       </c>
       <c r="B41" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="C41" t="s">
         <v>276</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>31</v>
+        <v>315</v>
       </c>
       <c r="E41" t="s">
         <v>29</v>
@@ -13657,10 +13623,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B42" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C42" t="s">
         <v>276</v>
@@ -13677,10 +13643,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B43" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C43" t="s">
         <v>276</v>
@@ -13697,36 +13663,36 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>375</v>
+      </c>
+      <c r="B44" t="s">
+        <v>293</v>
+      </c>
+      <c r="C44" t="s">
+        <v>276</v>
+      </c>
+      <c r="D44" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" t="s">
         <v>366</v>
-      </c>
-      <c r="B44" t="s">
-        <v>320</v>
-      </c>
-      <c r="C44" t="s">
-        <v>276</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="E44" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>292</v>
+        <v>376</v>
       </c>
       <c r="B45" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C45" t="s">
         <v>276</v>
       </c>
-      <c r="D45" s="31" t="s">
-        <v>31</v>
+      <c r="D45" s="31">
+        <v>1</v>
       </c>
       <c r="E45" t="s">
         <v>29</v>
@@ -13737,16 +13703,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="B46" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C46" t="s">
         <v>276</v>
       </c>
-      <c r="D46" s="31" t="s">
-        <v>316</v>
+      <c r="D46" s="31">
+        <v>1</v>
       </c>
       <c r="E46" t="s">
         <v>29</v>
@@ -13757,16 +13723,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="B47" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C47" t="s">
         <v>276</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="E47" t="s">
         <v>29</v>
@@ -13777,16 +13743,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B48" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C48" t="s">
         <v>276</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="E48" t="s">
         <v>29</v>
@@ -13797,7 +13763,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B49" t="s">
         <v>293</v>
@@ -13805,19 +13771,19 @@
       <c r="C49" t="s">
         <v>276</v>
       </c>
-      <c r="D49" t="s">
-        <v>54</v>
+      <c r="D49" s="31">
+        <v>1</v>
       </c>
       <c r="E49" t="s">
         <v>29</v>
       </c>
       <c r="F49" t="s">
-        <v>376</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B50" t="s">
         <v>293</v>
@@ -13825,8 +13791,8 @@
       <c r="C50" t="s">
         <v>276</v>
       </c>
-      <c r="D50" s="31">
-        <v>1</v>
+      <c r="D50" s="31" t="s">
+        <v>54</v>
       </c>
       <c r="E50" t="s">
         <v>29</v>
@@ -13837,7 +13803,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B51" t="s">
         <v>293</v>
@@ -13845,8 +13811,8 @@
       <c r="C51" t="s">
         <v>276</v>
       </c>
-      <c r="D51" s="31">
-        <v>1</v>
+      <c r="D51" t="s">
+        <v>54</v>
       </c>
       <c r="E51" t="s">
         <v>29</v>
@@ -13857,16 +13823,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="B52" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="C52" t="s">
         <v>276</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E52" t="s">
         <v>29</v>
@@ -13877,16 +13843,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
       <c r="B53" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="C53" t="s">
         <v>276</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E53" t="s">
         <v>29</v>
@@ -13897,16 +13863,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="B54" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="C54" t="s">
         <v>276</v>
       </c>
-      <c r="D54" s="31">
-        <v>1</v>
+      <c r="D54" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="E54" t="s">
         <v>29</v>
@@ -13917,16 +13883,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="B55" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="C55" t="s">
         <v>276</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E55" t="s">
         <v>29</v>
@@ -13937,16 +13903,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="B56" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="C56" t="s">
         <v>276</v>
       </c>
-      <c r="D56" t="s">
-        <v>54</v>
+      <c r="D56" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="E56" t="s">
         <v>29</v>
@@ -13957,16 +13923,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="B57" t="s">
-        <v>315</v>
+        <v>82</v>
       </c>
       <c r="C57" t="s">
         <v>276</v>
       </c>
-      <c r="D57" s="31" t="s">
-        <v>31</v>
+      <c r="D57" s="31">
+        <v>1</v>
       </c>
       <c r="E57" t="s">
         <v>29</v>
@@ -13975,52 +13941,52 @@
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>329</v>
-      </c>
-      <c r="B58" t="s">
-        <v>324</v>
-      </c>
-      <c r="C58" t="s">
-        <v>276</v>
-      </c>
-      <c r="D58" s="31">
-        <v>1</v>
-      </c>
-      <c r="E58" t="s">
-        <v>29</v>
-      </c>
-      <c r="F58" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>330</v>
-      </c>
-      <c r="B59" t="s">
-        <v>324</v>
-      </c>
-      <c r="C59" t="s">
-        <v>276</v>
-      </c>
-      <c r="D59" s="31">
-        <v>1</v>
-      </c>
-      <c r="E59" t="s">
-        <v>29</v>
-      </c>
-      <c r="F59" t="s">
-        <v>153</v>
+    <row r="58" spans="1:6" s="36" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="36" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B60" t="s">
-        <v>324</v>
+        <v>82</v>
       </c>
       <c r="C60" t="s">
         <v>276</v>
@@ -14037,90 +14003,90 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>332</v>
+        <v>235</v>
       </c>
       <c r="B61" t="s">
-        <v>324</v>
+        <v>82</v>
       </c>
       <c r="C61" t="s">
         <v>276</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="E61" t="s">
         <v>29</v>
       </c>
       <c r="F61" t="s">
-        <v>153</v>
+        <v>454</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>371</v>
-      </c>
-      <c r="B62" t="s">
-        <v>315</v>
-      </c>
-      <c r="C62" t="s">
-        <v>276</v>
-      </c>
-      <c r="D62" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="E62" t="s">
-        <v>29</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="A62" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="D62" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="20" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>372</v>
-      </c>
-      <c r="B63" t="s">
-        <v>315</v>
-      </c>
-      <c r="C63" t="s">
-        <v>276</v>
-      </c>
-      <c r="D63" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="E63" t="s">
-        <v>29</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="A63" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="D63" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="20" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>373</v>
-      </c>
-      <c r="B64" t="s">
-        <v>315</v>
-      </c>
-      <c r="C64" t="s">
-        <v>276</v>
-      </c>
-      <c r="D64" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="E64" t="s">
-        <v>29</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="A64" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="D64" s="35">
+        <v>1</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" s="20" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>374</v>
+        <v>284</v>
       </c>
       <c r="B65" t="s">
-        <v>315</v>
+        <v>82</v>
       </c>
       <c r="C65" t="s">
         <v>276</v>
@@ -14137,96 +14103,96 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>375</v>
+        <v>236</v>
       </c>
       <c r="B66" t="s">
-        <v>315</v>
+        <v>82</v>
       </c>
       <c r="C66" t="s">
         <v>276</v>
       </c>
-      <c r="D66" s="31" t="s">
-        <v>31</v>
+      <c r="D66" s="31">
+        <v>1</v>
       </c>
       <c r="E66" t="s">
         <v>29</v>
       </c>
       <c r="F66" t="s">
-        <v>153</v>
+        <v>386</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>347</v>
+        <v>294</v>
       </c>
       <c r="B67" t="s">
-        <v>82</v>
+        <v>293</v>
       </c>
       <c r="C67" t="s">
         <v>276</v>
       </c>
-      <c r="D67" s="31">
-        <v>1</v>
+      <c r="D67" s="31" t="s">
+        <v>54</v>
       </c>
       <c r="E67" t="s">
         <v>29</v>
       </c>
       <c r="F67" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" s="36" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="32" t="s">
-        <v>348</v>
-      </c>
-      <c r="B68" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C68" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="D68" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E68" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F68" s="24" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" s="36" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="32" t="s">
-        <v>349</v>
-      </c>
-      <c r="B69" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C69" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="D69" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E69" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F69" s="24" t="s">
-        <v>395</v>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>295</v>
+      </c>
+      <c r="B68" t="s">
+        <v>293</v>
+      </c>
+      <c r="C68" t="s">
+        <v>276</v>
+      </c>
+      <c r="D68" s="31">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>296</v>
+      </c>
+      <c r="B69" t="s">
+        <v>293</v>
+      </c>
+      <c r="C69" t="s">
+        <v>276</v>
+      </c>
+      <c r="D69" s="31">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
+        <v>293</v>
       </c>
       <c r="C70" t="s">
         <v>276</v>
       </c>
-      <c r="D70" s="31">
-        <v>1</v>
+      <c r="D70" s="31" t="s">
+        <v>54</v>
       </c>
       <c r="E70" t="s">
         <v>29</v>
@@ -14235,89 +14201,89 @@
         <v>153</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="B71" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="C71" s="51" t="s">
-        <v>276</v>
-      </c>
-      <c r="D71" s="52" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>298</v>
+      </c>
+      <c r="B71" t="s">
+        <v>293</v>
+      </c>
+      <c r="C71" t="s">
+        <v>276</v>
+      </c>
+      <c r="D71" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="E71" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="F71" s="51" t="s">
-        <v>464</v>
+      <c r="E71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="20" t="s">
-        <v>459</v>
-      </c>
-      <c r="B72" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="D72" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E72" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F72" s="20" t="s">
+      <c r="A72" t="s">
+        <v>299</v>
+      </c>
+      <c r="B72" t="s">
+        <v>293</v>
+      </c>
+      <c r="C72" t="s">
+        <v>276</v>
+      </c>
+      <c r="D72" s="31">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="20" t="s">
-        <v>460</v>
-      </c>
-      <c r="B73" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="D73" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E73" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F73" s="20" t="s">
+      <c r="A73" t="s">
+        <v>300</v>
+      </c>
+      <c r="B73" t="s">
+        <v>293</v>
+      </c>
+      <c r="C73" t="s">
+        <v>276</v>
+      </c>
+      <c r="D73" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E73" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="20" t="s">
-        <v>461</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="C74" s="20" t="s">
+      <c r="A74" t="s">
+        <v>301</v>
+      </c>
+      <c r="B74" t="s">
+        <v>293</v>
+      </c>
+      <c r="C74" t="s">
         <v>276</v>
       </c>
       <c r="D74" s="35">
         <v>1</v>
       </c>
-      <c r="E74" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F74" s="20" t="s">
+      <c r="E74" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B75" t="s">
         <v>82</v>
@@ -14326,18 +14292,18 @@
         <v>276</v>
       </c>
       <c r="D75" s="31" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="E75" t="s">
         <v>29</v>
       </c>
       <c r="F75" t="s">
-        <v>153</v>
+        <v>285</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B76" t="s">
         <v>82</v>
@@ -14345,59 +14311,59 @@
       <c r="C76" t="s">
         <v>276</v>
       </c>
-      <c r="D76" s="31">
-        <v>1</v>
+      <c r="D76" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="E76" t="s">
         <v>29</v>
       </c>
       <c r="F76" t="s">
-        <v>396</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>294</v>
+        <v>238</v>
       </c>
       <c r="B77" t="s">
-        <v>293</v>
+        <v>82</v>
       </c>
       <c r="C77" t="s">
         <v>276</v>
       </c>
       <c r="D77" s="31" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E77" t="s">
         <v>29</v>
       </c>
       <c r="F77" t="s">
-        <v>393</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>295</v>
+        <v>239</v>
       </c>
       <c r="B78" t="s">
-        <v>293</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
         <v>276</v>
       </c>
-      <c r="D78" s="31">
-        <v>1</v>
+      <c r="D78" s="31" t="s">
+        <v>56</v>
       </c>
       <c r="E78" t="s">
         <v>29</v>
       </c>
       <c r="F78" t="s">
-        <v>153</v>
+        <v>386</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B79" t="s">
         <v>293</v>
@@ -14405,19 +14371,19 @@
       <c r="C79" t="s">
         <v>276</v>
       </c>
-      <c r="D79" s="31">
-        <v>1</v>
+      <c r="D79" s="31" t="s">
+        <v>54</v>
       </c>
       <c r="E79" t="s">
         <v>29</v>
       </c>
       <c r="F79" t="s">
-        <v>153</v>
+        <v>383</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B80" t="s">
         <v>293</v>
@@ -14425,8 +14391,8 @@
       <c r="C80" t="s">
         <v>276</v>
       </c>
-      <c r="D80" s="31" t="s">
-        <v>54</v>
+      <c r="D80" s="31">
+        <v>1</v>
       </c>
       <c r="E80" t="s">
         <v>29</v>
@@ -14437,7 +14403,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B81" t="s">
         <v>293</v>
@@ -14445,8 +14411,8 @@
       <c r="C81" t="s">
         <v>276</v>
       </c>
-      <c r="D81" s="31" t="s">
-        <v>54</v>
+      <c r="D81" s="31">
+        <v>1</v>
       </c>
       <c r="E81" t="s">
         <v>29</v>
@@ -14457,7 +14423,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B82" t="s">
         <v>293</v>
@@ -14465,8 +14431,8 @@
       <c r="C82" t="s">
         <v>276</v>
       </c>
-      <c r="D82" s="31">
-        <v>1</v>
+      <c r="D82" s="31" t="s">
+        <v>54</v>
       </c>
       <c r="E82" t="s">
         <v>29</v>
@@ -14477,7 +14443,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B83" t="s">
         <v>293</v>
@@ -14497,7 +14463,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B84" t="s">
         <v>293</v>
@@ -14505,7 +14471,7 @@
       <c r="C84" t="s">
         <v>276</v>
       </c>
-      <c r="D84" s="35">
+      <c r="D84" s="31">
         <v>1</v>
       </c>
       <c r="E84" t="s">
@@ -14517,10 +14483,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="B85" t="s">
-        <v>82</v>
+        <v>293</v>
       </c>
       <c r="C85" t="s">
         <v>276</v>
@@ -14532,286 +14498,86 @@
         <v>29</v>
       </c>
       <c r="F85" t="s">
-        <v>285</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>237</v>
+        <v>309</v>
       </c>
       <c r="B86" t="s">
+        <v>293</v>
+      </c>
+      <c r="C86" t="s">
+        <v>276</v>
+      </c>
+      <c r="D86" s="35">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B87" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C86" t="s">
-        <v>276</v>
-      </c>
-      <c r="D86" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="E86" t="s">
-        <v>29</v>
-      </c>
-      <c r="F86" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>238</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="C87" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="D87" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E87" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F87" s="25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="B88" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C87" t="s">
-        <v>276</v>
-      </c>
-      <c r="D87" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="E87" t="s">
-        <v>29</v>
-      </c>
-      <c r="F87" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>239</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="C88" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="D88" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E88" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F88" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="B89" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C88" t="s">
-        <v>276</v>
-      </c>
-      <c r="D88" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="E88" t="s">
-        <v>29</v>
-      </c>
-      <c r="F88" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>302</v>
-      </c>
-      <c r="B89" t="s">
-        <v>293</v>
-      </c>
-      <c r="C89" t="s">
-        <v>276</v>
-      </c>
-      <c r="D89" s="31" t="s">
+      <c r="C89" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="D89" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="E89" t="s">
-        <v>29</v>
-      </c>
-      <c r="F89" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>303</v>
-      </c>
-      <c r="B90" t="s">
-        <v>293</v>
-      </c>
-      <c r="C90" t="s">
-        <v>276</v>
-      </c>
-      <c r="D90" s="31">
-        <v>1</v>
-      </c>
-      <c r="E90" t="s">
-        <v>29</v>
-      </c>
-      <c r="F90" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>304</v>
-      </c>
-      <c r="B91" t="s">
-        <v>293</v>
-      </c>
-      <c r="C91" t="s">
-        <v>276</v>
-      </c>
-      <c r="D91" s="31">
-        <v>1</v>
-      </c>
-      <c r="E91" t="s">
-        <v>29</v>
-      </c>
-      <c r="F91" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>305</v>
-      </c>
-      <c r="B92" t="s">
-        <v>293</v>
-      </c>
-      <c r="C92" t="s">
-        <v>276</v>
-      </c>
-      <c r="D92" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="E92" t="s">
-        <v>29</v>
-      </c>
-      <c r="F92" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>306</v>
-      </c>
-      <c r="B93" t="s">
-        <v>293</v>
-      </c>
-      <c r="C93" t="s">
-        <v>276</v>
-      </c>
-      <c r="D93" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="E93" t="s">
-        <v>29</v>
-      </c>
-      <c r="F93" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>307</v>
-      </c>
-      <c r="B94" t="s">
-        <v>293</v>
-      </c>
-      <c r="C94" t="s">
-        <v>276</v>
-      </c>
-      <c r="D94" s="31">
-        <v>1</v>
-      </c>
-      <c r="E94" t="s">
-        <v>29</v>
-      </c>
-      <c r="F94" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>308</v>
-      </c>
-      <c r="B95" t="s">
-        <v>293</v>
-      </c>
-      <c r="C95" t="s">
-        <v>276</v>
-      </c>
-      <c r="D95" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="E95" t="s">
-        <v>29</v>
-      </c>
-      <c r="F95" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>309</v>
-      </c>
-      <c r="B96" t="s">
-        <v>293</v>
-      </c>
-      <c r="C96" t="s">
-        <v>276</v>
-      </c>
-      <c r="D96" s="35">
-        <v>1</v>
-      </c>
-      <c r="E96" t="s">
-        <v>29</v>
-      </c>
-      <c r="F96" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="B97" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C97" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="D97" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E97" s="32" t="s">
+      <c r="E89" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="F97" s="25" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="B98" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C98" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="D98" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E98" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="F98" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="B99" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C99" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="D99" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E99" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="F99" s="25" t="s">
+      <c r="F89" s="25" t="s">
         <v>211</v>
       </c>
     </row>
@@ -15420,7 +15186,7 @@
         <v>35</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="33" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15445,7 +15211,7 @@
     </row>
     <row r="11" spans="1:6" s="33" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B11" s="33" t="s">
         <v>82</v>
@@ -15465,7 +15231,7 @@
     </row>
     <row r="12" spans="1:6" s="33" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B12" s="33" t="s">
         <v>82</v>
@@ -15500,7 +15266,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
@@ -15799,10 +15565,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>276</v>
@@ -15819,10 +15585,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>276</v>
@@ -15839,10 +15605,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>276</v>
@@ -15859,10 +15625,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>276</v>
@@ -15899,10 +15665,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>276</v>
@@ -15919,10 +15685,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>276</v>
@@ -15939,10 +15705,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C20" s="33" t="s">
         <v>276</v>
@@ -15959,10 +15725,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>276</v>
@@ -15999,10 +15765,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>276</v>
@@ -16019,10 +15785,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>276</v>
@@ -16039,10 +15805,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>276</v>
@@ -16357,10 +16123,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>276</v>
@@ -16377,10 +16143,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>276</v>
@@ -16397,10 +16163,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>276</v>
@@ -16417,10 +16183,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>276</v>
@@ -16633,16 +16399,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="31" t="s">
         <v>315</v>
-      </c>
-      <c r="C9" t="s">
-        <v>276</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>316</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
@@ -16653,10 +16419,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C10" t="s">
         <v>276</v>
@@ -16673,10 +16439,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="B11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C11" t="s">
         <v>276</v>
@@ -16693,7 +16459,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B12" t="s">
         <v>293</v>
@@ -16708,12 +16474,12 @@
         <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="B13" t="s">
         <v>293</v>
@@ -16733,7 +16499,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B14" t="s">
         <v>293</v>
@@ -16753,7 +16519,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B15" t="s">
         <v>293</v>
@@ -16773,7 +16539,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B16" t="s">
         <v>293</v>
@@ -16793,7 +16559,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B17" t="s">
         <v>293</v>
@@ -16813,7 +16579,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B18" t="s">
         <v>293</v>
@@ -16833,7 +16599,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B19" t="s">
         <v>293</v>
@@ -16853,10 +16619,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C20" t="s">
         <v>276</v>
@@ -16873,10 +16639,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C21" t="s">
         <v>276</v>
@@ -16893,10 +16659,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C22" t="s">
         <v>276</v>
@@ -16913,10 +16679,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C23" t="s">
         <v>276</v>
@@ -16933,10 +16699,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C24" t="s">
         <v>276</v>
@@ -16953,10 +16719,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C25" t="s">
         <v>276</v>
@@ -16973,10 +16739,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C26" t="s">
         <v>276</v>
@@ -16993,10 +16759,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C27" t="s">
         <v>276</v>
@@ -17013,10 +16779,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C28" t="s">
         <v>276</v>
@@ -17033,10 +16799,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C29" t="s">
         <v>276</v>
@@ -17551,7 +17317,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>126</v>
@@ -17571,7 +17337,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>126</v>
@@ -18178,7 +17944,7 @@
     </row>
     <row r="25" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>126</v>
@@ -18198,7 +17964,7 @@
     </row>
     <row r="26" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>126</v>
@@ -18809,7 +18575,7 @@
     </row>
     <row r="25" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>126</v>
@@ -18829,7 +18595,7 @@
     </row>
     <row r="26" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>126</v>
@@ -19440,7 +19206,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>126</v>
@@ -19460,7 +19226,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>126</v>
@@ -19929,7 +19695,7 @@
     </row>
     <row r="20" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>126</v>
@@ -19949,7 +19715,7 @@
     </row>
     <row r="21" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>126</v>
@@ -20744,15 +20510,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010072E6CDABC94C8E4D9FF787BE52A12D70" ma:contentTypeVersion="12" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="d7db233095d5c438baabbd879a4c3a16">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b4710195-8c97-40d8-961f-382a10a2b3ee" xmlns:ns3="34f82a15-a147-4b49-8ecb-26ad79431260" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fcf6106967269ac970a9196950ae0a38" ns2:_="" ns3:_="">
     <xsd:import namespace="b4710195-8c97-40d8-961f-382a10a2b3ee"/>
@@ -20969,6 +20726,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C1B9256-96DA-4062-9C6D-3D063E88988E}">
   <ds:schemaRefs>
@@ -20979,14 +20745,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D39F1338-D7F3-425E-896B-02A0063866D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD2D8DD5-74D0-4D1A-A27F-BF5941F296B5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21003,4 +20761,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D39F1338-D7F3-425E-896B-02A0063866D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>